--- a/website design.xlsx
+++ b/website design.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmacneneyjr/Desktop/email site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmacneneyjr/Desktop/emailScheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Visual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t xml:space="preserve">user table </t>
   </si>
@@ -158,6 +159,87 @@
   </si>
   <si>
     <t xml:space="preserve">add in function for users to easily view emails? </t>
+  </si>
+  <si>
+    <t>notification_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>recipient_id</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>next_notify_date</t>
+  </si>
+  <si>
+    <t>max_repeats</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>recurrance</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>YEARLY</t>
+  </si>
+  <si>
+    <t>sort by next_notify date</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>run script daily</t>
+  </si>
+  <si>
+    <t>grab those that have next notify dates of today</t>
+  </si>
+  <si>
+    <t>send email message based on recipient_id</t>
+  </si>
+  <si>
+    <t>update each notification next_notify_date</t>
+  </si>
+  <si>
+    <t>check the recurrance schedule</t>
+  </si>
+  <si>
+    <t>events_completed</t>
+  </si>
+  <si>
+    <t>calculate the next_notify_date</t>
+  </si>
+  <si>
+    <t>if next notify date is greater than the end date</t>
+  </si>
+  <si>
+    <t>mark inactive</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>update next_notify date</t>
+  </si>
+  <si>
+    <t>update number of events_completed</t>
   </si>
 </sst>
 </file>
@@ -201,9 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,6 +685,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9271000" y="533400"/>
+          <a:ext cx="3860800" cy="4241800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>class Notification(models.Model):		email_user = models.ForeignKey('EmailUser', on_delete=models.SET_NULL, null=True)	recipient = models.ForeignKey('Recipient', on_delete=models.SET_NULL, null=True)	event = models.ForeignKey('Event', on_delete=models.SET_NULL, null=True)	start_date = models.DateField(null=True, blank=True)	end_date = models.DateField(null=True, blank=True)	next_notify_date = UnixDateTimeField()	max_repeats = models.IntegerField(null=True)	# define active vs inactive chars	ACTIVE = 'Y'	INACTIVE = 'N'	IS_ACTIVE_OPTS = (		(ACTIVE, 'ACTIVE'),		(INACTIVE, 'INACTIVE')	)	is_active = models.CharField(max_length=1, choices=IS_ACTIVE_OPTS)	# define time periods in seconds	DAY = 86400	WEEK = 604800	MONTH = 2629746	RECUR_OPTS = (		(DAY, 'DAILY'),		(WEEK, 'WEEKLY'),		(MONTH, 'MONTHLY')	)	recurrance = models.IntegerField(null=True, choices=RECUR_OPTS)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1002,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,4 +1263,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7376</v>
+      </c>
+      <c r="B2">
+        <v>7983</v>
+      </c>
+      <c r="C2">
+        <v>1918</v>
+      </c>
+      <c r="D2">
+        <v>1680</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43066</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43795</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43066</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3414</v>
+      </c>
+      <c r="B3">
+        <v>6859</v>
+      </c>
+      <c r="C3">
+        <v>1768</v>
+      </c>
+      <c r="D3">
+        <v>3650</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43070</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43795</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43066</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8276</v>
+      </c>
+      <c r="B4">
+        <v>6955</v>
+      </c>
+      <c r="C4">
+        <v>3059</v>
+      </c>
+      <c r="D4">
+        <v>7093</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43094</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43795</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43066</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/website design.xlsx
+++ b/website design.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DB Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Visual" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Steps" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t xml:space="preserve">user table </t>
   </si>
@@ -240,6 +241,63 @@
   </si>
   <si>
     <t>update number of events_completed</t>
+  </si>
+  <si>
+    <t>Add recipient view</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** the user is implied by te current logged in user. It's the foreign key to join off of </t>
+  </si>
+  <si>
+    <t>Add Recurring Event</t>
+  </si>
+  <si>
+    <t>*** this will create both an event and a notification</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>max repeats</t>
+  </si>
+  <si>
+    <t>frequency</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1213,7 @@
   <dimension ref="D1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1497,4 +1555,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>